--- a/data/common/Postdraft_Rookies.xlsx
+++ b/data/common/Postdraft_Rookies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="534" documentId="8_{F715F125-FACE-4CDD-A872-54B69401BE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D5C7014-11A9-49EB-9218-320CD7357925}"/>
+  <xr:revisionPtr revIDLastSave="554" documentId="8_{F715F125-FACE-4CDD-A872-54B69401BE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3D6FB22-D5F9-430E-848A-82024177DE73}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5420" windowWidth="28800" windowHeight="15460" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15460" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="256">
   <si>
     <t>Player</t>
   </si>
@@ -880,9 +880,6 @@
 your rookie drafts, you can still take him on situation -- and pre-draft sleeper status --
 alone. There’s just no real reason to be aggressive in snagging him, especially with his
 high-risk Draft Capital Delta.</t>
-  </si>
-  <si>
-    <t>Isaac Teslaa</t>
   </si>
   <si>
     <t>DET</t>
@@ -1878,6 +1875,43 @@
   </si>
   <si>
     <t>Basketball player, no production</t>
+  </si>
+  <si>
+    <t>Tahj Brooks</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>Travyeon Wiliams, Ray Davis, Jeremy McNichols</t>
+  </si>
+  <si>
+    <t>Update: If you’ve got Chase Brown in dynasty, you were probably holding your breath with 
+every Cincinnati Bengals selection in the draft. Fortunately for you, they didn’t take a 
+running back until the sixth round. Unfortunately for you, he’s a pretty good player.
+ Tahj Brooks is built to see a lot of work. He was only 5’9’’ at the combine, but he weighed 
+in at 214 pounds, giving him a top-three Body Mass Index in this year’s class.
+ Brooks spent five seasons at Texas Tech, and he was really featured in the offense during 
+his final two. In 2023 and 2024, he saw 290 and 284 rush attempts, respectively, and he 
+hit total yards per team play rates of 1.71 and 1.99. That 1.99 number ranks top-10 in the 
+class.
+ There may be some long speed concerns with Brooks, even if he exceeded expectations a bit 
+at the combine with a 4.52 40. He was below average at generating explosive runs throughout 
+his career. His receiving profile isn’t stellar, either, with a bottom-10 best-season 
+receiving yards per team pass attempt rate. Brooks’ 35.7 Breakout Score is seventh-worst in 
+the class.
+ Lots of respected analysts see good things in Brooks. Friend of the guide, Matt Waldman, 
+calls him lemonade, because he routinely turns the lemons that his offensive line gives him 
+into lemonade. It aligns with what his numbers say -- he’s been a pretty effective ground
+game back.
+ The question, for me, is whether he’s a true three-down back in the NFL. The answer to that 
+is probably not based on draft capital and his overall ZAP score, but he has the tools 
+to potentially dig into Chase Brown’s workload a bit. And Brooks can easily become the top 
+handcuff in one of the best offenses in football. That alone warrants a late-round pick in 
+rookie drafts.</t>
+  </si>
+  <si>
+    <t>Isaac TeSlaa</t>
   </si>
 </sst>
 </file>
@@ -2270,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2351,7 +2385,7 @@
         <v>127</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="406" x14ac:dyDescent="0.35">
@@ -2383,7 +2417,7 @@
         <v>127</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
@@ -2425,6 +2459,9 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="406" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -2487,7 +2524,7 @@
         <v>127</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="406" x14ac:dyDescent="0.35">
@@ -2530,7 +2567,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9">
         <v>93.4</v>
@@ -2551,7 +2588,7 @@
         <v>127</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="406" x14ac:dyDescent="0.35">
@@ -2562,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10">
         <v>86.5</v>
@@ -2583,7 +2620,7 @@
         <v>134</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -2593,6 +2630,9 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -2643,10 +2683,10 @@
         <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J13" t="s">
         <v>224</v>
-      </c>
-      <c r="J13" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
@@ -2720,6 +2760,9 @@
       <c r="B16" t="s">
         <v>18</v>
       </c>
+      <c r="C16" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -2729,7 +2772,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D17">
         <v>91.82</v>
@@ -2738,7 +2781,7 @@
         <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
@@ -2770,7 +2813,7 @@
         <v>127</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="377" x14ac:dyDescent="0.35">
@@ -2866,7 +2909,7 @@
         <v>151</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="348" x14ac:dyDescent="0.35">
@@ -2909,7 +2952,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D23">
         <v>79.8</v>
@@ -2930,7 +2973,7 @@
         <v>127</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="362.5" x14ac:dyDescent="0.35">
@@ -2973,7 +3016,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D25">
         <v>88.05</v>
@@ -2982,7 +3025,7 @@
         <v>59</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -2992,6 +3035,9 @@
       <c r="B26" t="s">
         <v>18</v>
       </c>
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -3000,6 +3046,9 @@
       <c r="B27" t="s">
         <v>18</v>
       </c>
+      <c r="C27" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -3030,7 +3079,7 @@
         <v>127</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
@@ -3041,7 +3090,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D29">
         <v>68.599999999999994</v>
@@ -3062,7 +3111,7 @@
         <v>134</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="377" x14ac:dyDescent="0.35">
@@ -3094,7 +3143,7 @@
         <v>127</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="377" x14ac:dyDescent="0.35">
@@ -3137,7 +3186,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D32">
         <v>66.400000000000006</v>
@@ -3158,7 +3207,7 @@
         <v>127</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
@@ -3169,7 +3218,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D33">
         <v>69.900000000000006</v>
@@ -3190,7 +3239,7 @@
         <v>127</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -3201,7 +3250,7 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34">
         <v>84.28</v>
@@ -3210,7 +3259,7 @@
         <v>61</v>
       </c>
       <c r="J34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="203" x14ac:dyDescent="0.35">
@@ -3221,7 +3270,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35">
         <v>67</v>
@@ -3242,7 +3291,7 @@
         <v>127</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="348" x14ac:dyDescent="0.35">
@@ -3274,7 +3323,7 @@
         <v>134</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -3284,6 +3333,9 @@
       <c r="B37" t="s">
         <v>18</v>
       </c>
+      <c r="C37" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="290" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
@@ -3293,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38">
         <v>65</v>
@@ -3314,7 +3366,7 @@
         <v>134</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -3325,7 +3377,7 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D39">
         <v>81.13</v>
@@ -3334,7 +3386,7 @@
         <v>61</v>
       </c>
       <c r="J39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
@@ -3345,7 +3397,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40">
         <v>63.4</v>
@@ -3366,7 +3418,7 @@
         <v>134</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="362.5" x14ac:dyDescent="0.35">
@@ -3398,7 +3450,7 @@
         <v>127</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
@@ -3409,7 +3461,7 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D42">
         <v>55.8</v>
@@ -3430,7 +3482,7 @@
         <v>127</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
@@ -3462,7 +3514,7 @@
         <v>134</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="174" x14ac:dyDescent="0.35">
@@ -3473,7 +3525,7 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D44">
         <v>43.6</v>
@@ -3502,7 +3554,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D45">
         <v>43.7</v>
@@ -3534,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D46">
         <v>44.5</v>
@@ -3589,7 +3641,7 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D48">
         <v>72.3</v>
@@ -3598,7 +3650,7 @@
         <v>87</v>
       </c>
       <c r="J48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -3609,7 +3661,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49">
         <v>44.5</v>
@@ -3638,7 +3690,7 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D50">
         <v>36.6</v>
@@ -3659,7 +3711,7 @@
         <v>127</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="87" x14ac:dyDescent="0.35">
@@ -3751,13 +3803,13 @@
     </row>
     <row r="54" spans="1:10" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54">
         <v>72.099999999999994</v>
@@ -3766,7 +3818,7 @@
         <v>74</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>68</v>
@@ -3778,18 +3830,18 @@
         <v>151</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55">
         <v>61.1</v>
@@ -3798,7 +3850,7 @@
         <v>80</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>76</v>
@@ -3810,18 +3862,18 @@
         <v>127</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="348" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D56">
         <v>58.4</v>
@@ -3830,7 +3882,7 @@
         <v>80</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>66</v>
@@ -3842,12 +3894,12 @@
         <v>151</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="261" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -3862,10 +3914,10 @@
         <v>80</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="H57" s="2">
         <v>205</v>
@@ -3874,12 +3926,12 @@
         <v>151</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="261" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -3894,7 +3946,7 @@
         <v>80</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>90</v>
@@ -3906,18 +3958,18 @@
         <v>134</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="290" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59">
         <v>54.2</v>
@@ -3926,7 +3978,7 @@
         <v>80</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>67</v>
@@ -3938,18 +3990,18 @@
         <v>127</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="319" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D60">
         <v>74.5</v>
@@ -3958,7 +4010,7 @@
         <v>74</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>96</v>
@@ -3970,12 +4022,12 @@
         <v>134</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -3990,7 +4042,7 @@
         <v>74</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>76</v>
@@ -4002,18 +4054,18 @@
         <v>127</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="319" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62">
         <v>61.4</v>
@@ -4022,7 +4074,7 @@
         <v>80</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>90</v>
@@ -4034,12 +4086,12 @@
         <v>127</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -4054,7 +4106,7 @@
         <v>87</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>90</v>
@@ -4066,18 +4118,18 @@
         <v>127</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="261" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D64">
         <v>33.1</v>
@@ -4086,7 +4138,7 @@
         <v>87</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>69</v>
@@ -4098,12 +4150,12 @@
         <v>127</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -4118,18 +4170,18 @@
         <v>87</v>
       </c>
       <c r="J65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D66">
         <v>44.7</v>
@@ -4138,12 +4190,12 @@
         <v>87</v>
       </c>
       <c r="J66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
@@ -4158,18 +4210,18 @@
         <v>87</v>
       </c>
       <c r="J67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D68">
         <v>23.3</v>
@@ -4178,18 +4230,18 @@
         <v>123</v>
       </c>
       <c r="J68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D69">
         <v>22.6</v>
@@ -4198,18 +4250,18 @@
         <v>123</v>
       </c>
       <c r="J69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B70" t="s">
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D70">
         <v>19.5</v>
@@ -4218,18 +4270,18 @@
         <v>123</v>
       </c>
       <c r="J70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D71">
         <v>11.3</v>
@@ -4238,18 +4290,18 @@
         <v>123</v>
       </c>
       <c r="J71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72">
         <v>10.7</v>
@@ -4258,12 +4310,12 @@
         <v>123</v>
       </c>
       <c r="J72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
@@ -4278,12 +4330,12 @@
         <v>123</v>
       </c>
       <c r="J73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B74" t="s">
         <v>21</v>
@@ -4298,7 +4350,39 @@
         <v>123</v>
       </c>
       <c r="J74" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>251</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75">
+        <v>49.2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H75" s="2">
+        <v>214</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
